--- a/src/main/resources/ResultStorage/EdisonReport.xlsx
+++ b/src/main/resources/ResultStorage/EdisonReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>TestCase Summary</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>PASSED</t>
-  </si>
-  <si>
-    <t>Validate the broken links for Advanced Mathematics A Part 2 in coursemanagement</t>
   </si>
 </sst>
 </file>
@@ -195,7 +192,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -253,26 +250,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s" s="3">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
